--- a/LoadRunner/Document MHT/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
+++ b/LoadRunner/Document MHT/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trifo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54C736-BC8A-4A85-A449-7B40ADF7742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5928206-75AB-454B-9D6F-317BCA7376C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -580,12 +579,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,87 +1514,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1623,44 +1678,44 @@
   </cellStyleXfs>
   <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1670,28 +1725,28 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1710,33 +1765,36 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="100" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1752,96 +1810,129 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="100" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="100"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="140"/>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="160">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% — акцент1 4" xfId="82" xr:uid="{0E7D9273-4C70-4A26-AB6D-AFE5E0E4C9B5}"/>
     <cellStyle name="20% — акцент1 5" xfId="102" xr:uid="{1292726F-E0CE-48FE-BB20-75A9C2B3B0DD}"/>
+    <cellStyle name="20% — акцент1 6" xfId="122" xr:uid="{B059B76B-CFBE-4B81-A321-C7B0B19EBDAD}"/>
+    <cellStyle name="20% — акцент1 7" xfId="142" xr:uid="{D68C4CA4-1CC0-4988-89B2-ECD1779F6E8D}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент2 4" xfId="85" xr:uid="{5F803327-7278-41D8-98E2-CC6DE8A5DC8C}"/>
     <cellStyle name="20% — акцент2 5" xfId="105" xr:uid="{FA6F943D-02FA-482E-AC8E-8F9E6C7A2623}"/>
+    <cellStyle name="20% — акцент2 6" xfId="125" xr:uid="{5FCA0463-D2B7-4707-A567-25B7889A37A3}"/>
+    <cellStyle name="20% — акцент2 7" xfId="145" xr:uid="{61B3D018-4AB6-47A5-9C9D-2195F336BA71}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% — акцент3 4" xfId="88" xr:uid="{ED3A6D08-4B18-431D-9832-EC0936CB8597}"/>
     <cellStyle name="20% — акцент3 5" xfId="108" xr:uid="{16E9D24F-7F58-44B2-AA47-97211F3322D5}"/>
+    <cellStyle name="20% — акцент3 6" xfId="128" xr:uid="{62F3B1BD-7779-401C-B5B2-3A13629DAA3E}"/>
+    <cellStyle name="20% — акцент3 7" xfId="148" xr:uid="{F5D2DDD7-561A-4889-93E6-A61BE489C4CF}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент4 4" xfId="91" xr:uid="{4622FBAC-36E1-43B3-BAAC-6FD7DE5B4401}"/>
     <cellStyle name="20% — акцент4 5" xfId="111" xr:uid="{975E5595-0487-452A-813F-564677B05042}"/>
+    <cellStyle name="20% — акцент4 6" xfId="131" xr:uid="{D79B55C5-1F30-4C8E-B224-E06164DAD93D}"/>
+    <cellStyle name="20% — акцент4 7" xfId="151" xr:uid="{8FE7467E-3B79-4240-A531-F63CD9255D47}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% — акцент5 4" xfId="94" xr:uid="{A40F5A11-6020-4B6B-B6C8-9D198EE1D988}"/>
     <cellStyle name="20% — акцент5 5" xfId="114" xr:uid="{F823B56D-3C6A-4E28-9A77-A78881682EE9}"/>
+    <cellStyle name="20% — акцент5 6" xfId="134" xr:uid="{3E80C110-6C25-44CB-A91A-67414B4F067B}"/>
+    <cellStyle name="20% — акцент5 7" xfId="154" xr:uid="{A253B594-3DDE-4600-B095-E06D5A19F23F}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% — акцент6 4" xfId="97" xr:uid="{B0183320-2D96-4DF6-80ED-6FA42855D093}"/>
     <cellStyle name="20% — акцент6 5" xfId="117" xr:uid="{7B491EF3-B28B-45AF-ADE7-6F59843B4302}"/>
+    <cellStyle name="20% — акцент6 6" xfId="137" xr:uid="{C98D1328-61F0-4631-8CC7-630614495AC7}"/>
+    <cellStyle name="20% — акцент6 7" xfId="157" xr:uid="{48866CBD-70EB-4C0E-AF98-AB9EDFB02C13}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="40% — акцент1 4" xfId="83" xr:uid="{A039EF33-542B-4166-9D1C-EBD19344D3C7}"/>
     <cellStyle name="40% — акцент1 5" xfId="103" xr:uid="{2B0B4B36-EE62-44BB-9330-EB3F1C818375}"/>
+    <cellStyle name="40% — акцент1 6" xfId="123" xr:uid="{5320EBC5-A6B6-41ED-8108-2CA3FB8453C8}"/>
+    <cellStyle name="40% — акцент1 7" xfId="143" xr:uid="{CB6D3744-F041-4F7B-B9FA-73B62F15AD9F}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент2 4" xfId="86" xr:uid="{28A91939-F080-4FF5-B725-62D02FF21C09}"/>
     <cellStyle name="40% — акцент2 5" xfId="106" xr:uid="{840CD6FE-3BB6-467F-AB2C-DF90E509F3C1}"/>
+    <cellStyle name="40% — акцент2 6" xfId="126" xr:uid="{3A6585FA-5BB6-4DD2-8D3B-BC69B4E41499}"/>
+    <cellStyle name="40% — акцент2 7" xfId="146" xr:uid="{ED3E5BE0-C528-4543-AB36-BD959AF85A2A}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="40% — акцент3 4" xfId="89" xr:uid="{7B5EF7A4-B4A9-4D54-A0D9-19DBA60CBBB5}"/>
     <cellStyle name="40% — акцент3 5" xfId="109" xr:uid="{84E76FD4-0CC0-41D9-8D2A-8663D6F2102B}"/>
+    <cellStyle name="40% — акцент3 6" xfId="129" xr:uid="{11248A38-3537-4DD5-A4B5-8FFF42AFC673}"/>
+    <cellStyle name="40% — акцент3 7" xfId="149" xr:uid="{ABE164B6-DE9F-4EE8-999D-37C14F4DEC88}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="40% — акцент4 4" xfId="92" xr:uid="{B415644A-9051-4556-B91C-8DA521432FE9}"/>
     <cellStyle name="40% — акцент4 5" xfId="112" xr:uid="{668FC5A5-FF54-46D7-8EC4-AE7CFF808286}"/>
+    <cellStyle name="40% — акцент4 6" xfId="132" xr:uid="{A450EEF6-49B0-41CC-A244-978E3BFD6D3E}"/>
+    <cellStyle name="40% — акцент4 7" xfId="152" xr:uid="{F9C2426C-97FF-46B2-A26B-F77D8148626F}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="40% — акцент5 4" xfId="95" xr:uid="{CB3F3C63-3429-464F-850E-28FDC39A7E60}"/>
     <cellStyle name="40% — акцент5 5" xfId="115" xr:uid="{BBE69464-693A-4704-A7AB-665188FFE208}"/>
+    <cellStyle name="40% — акцент5 6" xfId="135" xr:uid="{768C4367-F748-4E85-8B86-EB654A8141AF}"/>
+    <cellStyle name="40% — акцент5 7" xfId="155" xr:uid="{DB421DA0-E585-4526-904C-AE47804582D9}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="40% — акцент6 4" xfId="98" xr:uid="{4487E093-1A23-4D00-A322-28B343551C9C}"/>
     <cellStyle name="40% — акцент6 5" xfId="118" xr:uid="{0C3FBEEB-7AF6-40CB-B453-B0282657F3B9}"/>
+    <cellStyle name="40% — акцент6 6" xfId="138" xr:uid="{02CD7E0F-54C5-4BF7-AAFC-7DC7FE9165C7}"/>
+    <cellStyle name="40% — акцент6 7" xfId="158" xr:uid="{50CD92D6-4E19-4A31-8C9B-EBB73AF2D657}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="84" xr:uid="{7CE47378-7DA0-465A-969F-4FFCDC56644D}"/>
     <cellStyle name="60% — акцент1 4" xfId="104" xr:uid="{7A8DAB8B-A329-4081-96F7-BD8E2D86BE7B}"/>
+    <cellStyle name="60% — акцент1 5" xfId="124" xr:uid="{1241E6B1-4BEB-4C48-83F4-2948E2AA1B7A}"/>
+    <cellStyle name="60% — акцент1 6" xfId="144" xr:uid="{63A1B60F-FB31-4F9C-BAC1-73933F488FD4}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="87" xr:uid="{BF703212-DCD9-441E-8292-8C7DFBC2F821}"/>
     <cellStyle name="60% — акцент2 4" xfId="107" xr:uid="{FF0E897D-450A-4218-B20D-BB31F28C6376}"/>
+    <cellStyle name="60% — акцент2 5" xfId="127" xr:uid="{5DAF5842-B837-4852-90B5-8D7619606CF3}"/>
+    <cellStyle name="60% — акцент2 6" xfId="147" xr:uid="{AB096E60-E12F-4FB5-858A-8B587F4A30D1}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="90" xr:uid="{8A0BAAB3-33A8-4082-AC98-2BFA14FF5711}"/>
     <cellStyle name="60% — акцент3 4" xfId="110" xr:uid="{1C36B231-120D-47D4-AB3E-94AF0B6DA6FB}"/>
+    <cellStyle name="60% — акцент3 5" xfId="130" xr:uid="{C8CBEE80-D005-4A09-8ACB-1E76B3B82868}"/>
+    <cellStyle name="60% — акцент3 6" xfId="150" xr:uid="{E989F6FC-90DC-41EA-B656-25FD3F457896}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="93" xr:uid="{AB794DDC-93D2-4D06-AC0E-957F042C06AC}"/>
     <cellStyle name="60% — акцент4 4" xfId="113" xr:uid="{A9F8D1E0-5FEA-4D83-81F1-4AE68B65D628}"/>
+    <cellStyle name="60% — акцент4 5" xfId="133" xr:uid="{C91FCE30-34E9-49CA-B6EC-B8F1057FF888}"/>
+    <cellStyle name="60% — акцент4 6" xfId="153" xr:uid="{E2C7428A-3EC8-4081-9F1F-03E9F38BA65F}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="96" xr:uid="{5639AD76-F76E-45EE-838E-BFEF26EAA4CA}"/>
     <cellStyle name="60% — акцент5 4" xfId="116" xr:uid="{A7F4BB2B-2D89-4364-A0EA-6BBBCDB51814}"/>
+    <cellStyle name="60% — акцент5 5" xfId="136" xr:uid="{55825DC1-540A-4EF6-86E3-4639D6BFBBA9}"/>
+    <cellStyle name="60% — акцент5 6" xfId="156" xr:uid="{AFE2E209-F2EE-494C-B1EF-0CC680DFC39A}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="99" xr:uid="{C2700998-990F-4769-8BD2-64A539E9E5E2}"/>
     <cellStyle name="60% — акцент6 4" xfId="119" xr:uid="{0FC5845F-037E-4BA0-8DBF-2543BC1D022B}"/>
+    <cellStyle name="60% — акцент6 5" xfId="139" xr:uid="{DA984136-C4E8-4995-9AC7-97501003BCDA}"/>
+    <cellStyle name="60% — акцент6 6" xfId="159" xr:uid="{233F6012-B0D3-432E-9824-B9139FECAFC9}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1867,6 +1958,8 @@
     <cellStyle name="Обычный 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Обычный 6" xfId="80" xr:uid="{D5172ED7-4960-4799-AFCC-0E6B8E93C781}"/>
     <cellStyle name="Обычный 7" xfId="100" xr:uid="{146A27F8-0BD3-4A54-9473-630B4E736779}"/>
+    <cellStyle name="Обычный 8" xfId="120" xr:uid="{F883D35A-B769-4A44-BE08-76628841175C}"/>
+    <cellStyle name="Обычный 9" xfId="140" xr:uid="{121AEA3D-1F97-42BE-879F-465B27C9C906}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
@@ -1874,6 +1967,8 @@
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Примечание 5" xfId="81" xr:uid="{DB9A0E1A-1A30-4BFE-8A53-29D691F66963}"/>
     <cellStyle name="Примечание 6" xfId="101" xr:uid="{DA21D537-BE1B-45B6-A3A8-E727342BB2CE}"/>
+    <cellStyle name="Примечание 7" xfId="121" xr:uid="{82635E09-49CE-4749-B8F7-F3353A06B8DA}"/>
+    <cellStyle name="Примечание 8" xfId="141" xr:uid="{A9F95EEB-5412-4E40-9F1A-2D6CA551FD6F}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -2682,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H45" sqref="F44:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +3021,7 @@
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="23">
@@ -3673,7 +3768,7 @@
       <c r="A21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="23">
@@ -3828,7 +3923,7 @@
       <c r="A26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="23">
@@ -4105,14 +4200,14 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
@@ -4167,11 +4262,11 @@
       </c>
       <c r="H39" s="23">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I39" s="21">
         <f>1-G39/H39</f>
-        <v>5.3924445121706466E-2</v>
+        <v>-5.0583901056709735E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4200,11 +4295,11 @@
       </c>
       <c r="H40" s="23">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I40" s="21">
         <f>1-G40/H40</f>
-        <v>3.0928114056721467E-2</v>
+        <v>-7.4405786589287093E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4232,11 +4327,12 @@
         <v>107.41329769462078</v>
       </c>
       <c r="H41" s="23">
-        <v>55</v>
+        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" ref="I41:I50" si="38">1-G41/H41</f>
-        <v>-0.95296904899310508</v>
+        <v>-0.1188885176522998</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4265,11 +4361,11 @@
       </c>
       <c r="H42" s="23">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="38"/>
-        <v>2.7518109631693877E-2</v>
+        <v>-0.11479631334903395</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4298,11 +4394,11 @@
       </c>
       <c r="H43" s="23">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="38"/>
-        <v>3.7754761109254908E-2</v>
+        <v>-0.12855923079778742</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4331,11 +4427,11 @@
       </c>
       <c r="H44" s="23">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="38"/>
-        <v>4.0383846461415462E-2</v>
+        <v>-0.19462419113987051</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4364,11 +4460,11 @@
       </c>
       <c r="H45" s="23">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="38"/>
-        <v>-1.9675149812135917E-2</v>
+        <v>-0.12164266479334951</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4397,11 +4493,11 @@
       </c>
       <c r="H46" s="23">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="38"/>
-        <v>-0.15384615384615374</v>
+        <v>-9.8901098901098994E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4430,11 +4526,11 @@
       </c>
       <c r="H47" s="23">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="38"/>
-        <v>-2.3392821942378905E-2</v>
+        <v>-0.13463117215350695</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4463,11 +4559,11 @@
       </c>
       <c r="H48" s="23">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="38"/>
-        <v>4.610492845786951E-2</v>
+        <v>-0.11835973904939423</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4496,11 +4592,11 @@
       </c>
       <c r="H49" s="23">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="38"/>
-        <v>7.3359073359073323E-2</v>
+        <v>-0.20120120120120122</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4529,11 +4625,11 @@
       </c>
       <c r="H50" s="23">
         <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="38"/>
-        <v>4.610492845786951E-2</v>
+        <v>-0.20120120120120122</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4583,7 +4679,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,7 +4719,7 @@
         <f>'Автоматизированный расчет'!A41</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4641,7 +4737,7 @@
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="63" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4668,7 +4764,7 @@
         <f>'Автоматизированный расчет'!A46</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="65" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4677,7 +4773,7 @@
         <f>'Автоматизированный расчет'!A47</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="65" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4686,7 +4782,7 @@
         <f>'Автоматизированный расчет'!A48</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="65" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4695,7 +4791,7 @@
         <f>'Автоматизированный расчет'!A49</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4704,7 +4800,7 @@
         <f>'Автоматизированный расчет'!A50</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="65" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4718,7 +4814,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="71">
-        <v>33.139000000000003</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="F2" s="71">
-        <v>4.101</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G2" s="71">
-        <v>31.433</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="H2" s="71">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="I2" s="71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="71">
         <v>0</v>
@@ -4805,19 +4901,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="71">
-        <v>0.182</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F3" s="71">
-        <v>1.4999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G3" s="71">
-        <v>0.113</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H3" s="71">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I3" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="71">
         <v>0</v>
@@ -4837,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="71">
-        <v>0.309</v>
+        <v>0.34</v>
       </c>
       <c r="F4" s="71">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G4" s="71">
-        <v>0.28299999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="71">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I4" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="71">
         <v>0</v>
@@ -4869,16 +4965,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="71">
-        <v>6.1079999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F5" s="71">
-        <v>0.14499999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G5" s="71">
-        <v>5.2880000000000003</v>
+        <v>0.313</v>
       </c>
       <c r="H5" s="71">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I5" s="71">
         <v>0</v>
@@ -4901,16 +4997,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="71">
-        <v>5.173</v>
+        <v>0.127</v>
       </c>
       <c r="F6" s="71">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G6" s="71">
-        <v>5.16</v>
+        <v>0.108</v>
       </c>
       <c r="H6" s="71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="71">
         <v>0</v>
@@ -4933,16 +5029,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="71">
-        <v>0.22900000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="F7" s="71">
-        <v>0.02</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G7" s="71">
-        <v>0.10199999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="H7" s="71">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I7" s="71">
         <v>0</v>
@@ -4965,19 +5061,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="71">
-        <v>5.8230000000000004</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="F8" s="71">
-        <v>1.919</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G8" s="71">
-        <v>5.2080000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="H8" s="71">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I8" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="71">
         <v>0</v>
@@ -4997,19 +5093,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="71">
-        <v>0.47499999999999998</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F9" s="71">
-        <v>5.6000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G9" s="71">
-        <v>0.38100000000000001</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H9" s="71">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I9" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="71">
         <v>0</v>
@@ -5029,19 +5125,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="71">
-        <v>6.5830000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F10" s="71">
-        <v>0.19800000000000001</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G10" s="71">
-        <v>5.3049999999999997</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="H10" s="71">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I10" s="71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="71">
         <v>0</v>
@@ -5061,16 +5157,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="71">
-        <v>1.5069999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F11" s="71">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G11" s="71">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G11" s="71">
-        <v>0.17799999999999999</v>
-      </c>
       <c r="H11" s="71">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I11" s="71">
         <v>1</v>
@@ -5093,19 +5189,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="71">
-        <v>5.117</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F12" s="71">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G12" s="71">
-        <v>5.1120000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="H12" s="71">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I12" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="71">
         <v>0</v>
@@ -5125,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="71">
-        <v>1.738</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F13" s="71">
-        <v>0.152</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G13" s="71">
-        <v>0.224</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="H13" s="71">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I13" s="71">
         <v>0</v>
@@ -5157,16 +5253,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="71">
-        <v>5.218</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F14" s="71">
-        <v>2.7E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G14" s="71">
-        <v>5.1589999999999998</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="H14" s="71">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I14" s="71">
         <v>0</v>
@@ -5189,16 +5285,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="71">
-        <v>22.864999999999998</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="F15" s="71">
-        <v>0.39200000000000002</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G15" s="71">
-        <v>21.295999999999999</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="H15" s="71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" s="71">
         <v>1</v>
@@ -5221,19 +5317,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="71">
-        <v>33.134</v>
+        <v>1.292</v>
       </c>
       <c r="F16" s="71">
-        <v>0.313</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G16" s="71">
-        <v>31.24</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="H16" s="71">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I16" s="71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J16" s="71">
         <v>0</v>
@@ -5253,16 +5349,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="71">
-        <v>23.186</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="F17" s="71">
-        <v>0.48899999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="G17" s="71">
-        <v>21.01</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="H17" s="71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" s="71">
         <v>0</v>
@@ -5285,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="71">
-        <v>32.909999999999997</v>
+        <v>1.5109999999999999</v>
       </c>
       <c r="F18" s="71">
-        <v>0.33600000000000002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G18" s="71">
-        <v>31.550999999999998</v>
+        <v>1.468</v>
       </c>
       <c r="H18" s="71">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" s="71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18" s="71">
         <v>0</v>
@@ -5317,19 +5413,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="71">
-        <v>26.878</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F19" s="71">
-        <v>0.2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G19" s="71">
-        <v>26.006</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H19" s="71">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I19" s="71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="71">
         <v>0</v>
@@ -5349,19 +5445,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="71">
-        <v>31.710999999999999</v>
+        <v>1.601</v>
       </c>
       <c r="F20" s="71">
-        <v>6.7000000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G20" s="71">
-        <v>31.574000000000002</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="H20" s="71">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I20" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="71">
         <v>0</v>
@@ -5399,13 +5495,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5558,13 +5654,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -5724,13 +5820,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
